--- a/data/headedgoals.xlsx
+++ b/data/headedgoals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45bfc195ac2ed6ff/Documents/GitHub/PLpredictingstuff/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF2BC95-0B2C-475E-A916-B2C6AC775477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{7CF2BC95-0B2C-475E-A916-B2C6AC775477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F83BFC3A-120F-49FA-BA84-FA0BCAB715FF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{35F55508-6D08-42BF-8043-5EB05739CE9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Kane</t>
   </si>
@@ -198,21 +198,6 @@
   </si>
   <si>
     <t>Wissa</t>
-  </si>
-  <si>
-    <t>Sima</t>
-  </si>
-  <si>
-    <t>Dari</t>
-  </si>
-  <si>
-    <t>Lallana</t>
-  </si>
-  <si>
-    <t>Masina</t>
-  </si>
-  <si>
-    <t>Traore</t>
   </si>
 </sst>
 </file>
@@ -564,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D325A009-5F8F-4CE5-84B0-4CD17E9ABFBD}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,60 +1154,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>188</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>178</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
